--- a/data/save_data/2023/garcía_luis.xlsx
+++ b/data/save_data/2023/garcía_luis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -523,6 +539,12 @@
         <v>31</v>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,6 +575,12 @@
       <c r="H4" t="n">
         <v>7</v>
       </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -581,6 +609,12 @@
       <c r="H5" t="n">
         <v>5</v>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +643,12 @@
       <c r="H6" t="n">
         <v>4</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,6 +675,12 @@
         <v>23</v>
       </c>
       <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -665,6 +711,12 @@
       <c r="H8" t="n">
         <v>5</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,6 +745,12 @@
       <c r="H9" t="n">
         <v>3</v>
       </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -719,6 +777,12 @@
         <v>12</v>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/save_data/2023/garcía_luis.xlsx
+++ b/data/save_data/2023/garcía_luis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,32 +486,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,32 +520,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -554,32 +554,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -656,32 +656,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
-        <v>91</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -690,14 +690,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -724,32 +724,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -758,32 +758,1970 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E10" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="D33" t="n">
+        <v>26</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
         <v>5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>22</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-06-24</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>21</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>15</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>21</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>23</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>34</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>11</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>24</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>17</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
         <v>12</v>
       </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>22</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>23</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>21</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>17</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>15</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/save_data/2023/garcía_luis.xlsx
+++ b/data/save_data/2023/garcía_luis.xlsx
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>-1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>-2</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>-5</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>-2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>-4</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>-6</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>-3</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>-7</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>-3</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>-7</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -1148,7 +1148,7 @@
         <v>-6</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>-6</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>-4</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>-2</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>-6</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>-1</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -1624,7 +1624,7 @@
         <v>-6</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>-6</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>-2</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>-2</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>-2</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>-3</v>
       </c>
       <c r="G43" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>-1</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>-3</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>-2</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>-1</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>-1</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>2</v>
@@ -2168,7 +2168,7 @@
         <v>-3</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>-2</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>-3</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>-1</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>-1</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>-3</v>
       </c>
       <c r="G62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2576,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>-1</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>

--- a/data/save_data/2023/garcía_luis.xlsx
+++ b/data/save_data/2023/garcía_luis.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>-1</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>-2</v>
       </c>
       <c r="F9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>-5</v>
       </c>
       <c r="F10" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>-2</v>
       </c>
       <c r="F11" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>-4</v>
       </c>
       <c r="F14" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>-6</v>
       </c>
       <c r="F15" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>-3</v>
       </c>
       <c r="F16" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>-7</v>
       </c>
       <c r="F17" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>-3</v>
       </c>
       <c r="F19" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>-7</v>
       </c>
       <c r="F20" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1142,10 +1142,10 @@
         <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F21" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>-6</v>
       </c>
       <c r="F22" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1244,10 +1244,10 @@
         <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1281,7 +1281,7 @@
         <v>-4</v>
       </c>
       <c r="F25" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1346,10 +1346,10 @@
         <v>16</v>
       </c>
       <c r="E27" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F27" t="n">
         <v>-1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-2</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1380,10 +1380,10 @@
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F28" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1414,10 +1414,10 @@
         <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1550,10 +1550,10 @@
         <v>26</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" t="n">
         <v>-1</v>
@@ -1618,10 +1618,10 @@
         <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F35" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>-6</v>
       </c>
       <c r="F36" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>-2</v>
       </c>
       <c r="F37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1754,10 +1754,10 @@
         <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>-2</v>
       </c>
       <c r="F40" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>-2</v>
       </c>
       <c r="F42" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>-3</v>
       </c>
       <c r="F43" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -1927,7 +1927,7 @@
         <v>-1</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1961,7 +1961,7 @@
         <v>-3</v>
       </c>
       <c r="F45" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -1995,7 +1995,7 @@
         <v>-2</v>
       </c>
       <c r="F46" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F49" t="n">
         <v>-1</v>
@@ -2131,7 +2131,7 @@
         <v>-1</v>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2165,7 +2165,7 @@
         <v>-3</v>
       </c>
       <c r="F51" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>-2</v>
       </c>
       <c r="F52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>24</v>
       </c>
       <c r="E53" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F53" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F56" t="n">
         <v>-1</v>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>23</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2539,7 +2539,7 @@
         <v>-3</v>
       </c>
       <c r="F62" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2570,10 +2570,10 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2709,7 +2709,7 @@
         <v>-1</v>
       </c>
       <c r="F67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
